--- a/data/trans_camb/P45C_R1-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R1-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 1,02</t>
+          <t>-0,8; 1,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 0,96</t>
+          <t>-0,9; 0,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,08; 3,06</t>
+          <t>0,04; 3,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 1,33</t>
+          <t>-0,36; 1,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 0,56</t>
+          <t>-0,92; 0,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 0,82</t>
+          <t>-0,77; 0,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 0,99</t>
+          <t>-0,34; 0,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 0,49</t>
+          <t>-0,74; 0,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 1,42</t>
+          <t>-0,13; 1,44</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-55,6; 172,22</t>
+          <t>-58,73; 174,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-72,13; 167,87</t>
+          <t>-70,39; 181,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-13,87; 457,78</t>
+          <t>-5,93; 550,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-32,35; 189,33</t>
+          <t>-30,8; 209,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-71,91; 91,46</t>
+          <t>-68,25; 101,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-56,06; 127,87</t>
+          <t>-54,59; 128,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-23,46; 125,15</t>
+          <t>-28,2; 125,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-56,9; 69,5</t>
+          <t>-57,75; 73,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 198,85</t>
+          <t>-15,01; 184,86</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 0,15</t>
+          <t>-1,6; 0,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,16; -0,39</t>
+          <t>-2,08; -0,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 0,48</t>
+          <t>-1,53; 0,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 0,35</t>
+          <t>-1,42; 0,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 0,01</t>
+          <t>-1,7; -0,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 0,22</t>
+          <t>-1,42; 0,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 0,04</t>
+          <t>-1,27; 0,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,6; -0,43</t>
+          <t>-1,62; -0,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 0,06</t>
+          <t>-1,19; 0,03</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-60,19; 14,42</t>
+          <t>-60,85; 20,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-77,91; -22,13</t>
+          <t>-76,75; -18,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-60,12; 32,22</t>
+          <t>-58,74; 31,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-57,57; 24,45</t>
+          <t>-56,02; 26,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-64,73; 3,82</t>
+          <t>-65,97; 3,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-57,09; 16,49</t>
+          <t>-55,61; 22,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-52,37; 4,46</t>
+          <t>-52,29; 2,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-64,76; -22,55</t>
+          <t>-65,67; -21,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-51,62; 4,62</t>
+          <t>-50,95; 2,39</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 0,9</t>
+          <t>-2,19; 0,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 0,56</t>
+          <t>-2,39; 0,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 1,75</t>
+          <t>-1,64; 1,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 2,22</t>
+          <t>-1,86; 2,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 0,29</t>
+          <t>-2,9; 0,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 1,28</t>
+          <t>-2,02; 1,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 0,97</t>
+          <t>-1,56; 1,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 0,14</t>
+          <t>-2,04; 0,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 1,18</t>
+          <t>-1,34; 1,22</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-85,04; 147,02</t>
+          <t>-86,51; 117,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-93,9; 135,96</t>
+          <t>-94,18; 157,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-68,26; 223,38</t>
+          <t>-67,38; 229,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-60,61; 181,97</t>
+          <t>-59,59; 196,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-86,21; 50,93</t>
+          <t>-83,4; 56,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-64,32; 120,51</t>
+          <t>-62,19; 108,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-58,46; 75,12</t>
+          <t>-60,18; 94,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-79,94; 29,15</t>
+          <t>-77,62; 15,17</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-50,66; 96,5</t>
+          <t>-50,25; 95,59</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 0,18</t>
+          <t>-1,01; 0,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,35; -0,21</t>
+          <t>-1,32; -0,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 0,73</t>
+          <t>-0,67; 0,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 0,53</t>
+          <t>-0,68; 0,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,22; -0,07</t>
+          <t>-1,14; -0,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 0,38</t>
+          <t>-0,79; 0,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 0,21</t>
+          <t>-0,68; 0,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,05; -0,27</t>
+          <t>-1,1; -0,28</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 0,36</t>
+          <t>-0,53; 0,39</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-48,25; 14,12</t>
+          <t>-51,25; 17,64</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-66,08; -14,36</t>
+          <t>-65,29; -9,19</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-31,77; 52,75</t>
+          <t>-35,13; 54,86</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-36,67; 38,14</t>
+          <t>-34,33; 42,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-58,82; -2,91</t>
+          <t>-57,38; 1,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-41,08; 29,43</t>
+          <t>-39,63; 27,69</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-34,94; 15,78</t>
+          <t>-35,18; 15,13</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-55,89; -18,22</t>
+          <t>-56,95; -17,68</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-29,38; 25,26</t>
+          <t>-28,22; 25,76</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P45C_R1-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R1-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 1,0</t>
+          <t>-0,71; 1,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 0,92</t>
+          <t>-0,94; 0,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,04; 3,02</t>
+          <t>-0,01; 2,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 1,4</t>
+          <t>-0,36; 1,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 0,6</t>
+          <t>-0,98; 0,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 0,84</t>
+          <t>-0,65; 0,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 0,93</t>
+          <t>-0,33; 0,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 0,53</t>
+          <t>-0,7; 0,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 1,44</t>
+          <t>-0,13; 1,36</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-58,73; 174,6</t>
+          <t>-52,3; 195,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-70,39; 181,8</t>
+          <t>-68,3; 161,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 550,33</t>
+          <t>-14,1; 426,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-30,8; 209,45</t>
+          <t>-29,18; 193,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-68,25; 101,79</t>
+          <t>-73,65; 99,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,59; 128,72</t>
+          <t>-48,53; 143,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-28,2; 125,99</t>
+          <t>-25,8; 133,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-57,75; 73,7</t>
+          <t>-55,11; 75,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-15,01; 184,86</t>
+          <t>-11,77; 178,93</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 0,27</t>
+          <t>-1,56; 0,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,08; -0,36</t>
+          <t>-2,08; -0,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 0,45</t>
+          <t>-1,63; 0,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 0,36</t>
+          <t>-1,53; 0,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,7; -0,01</t>
+          <t>-1,71; 0,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 0,3</t>
+          <t>-1,55; 0,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 0,02</t>
+          <t>-1,25; 0,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,62; -0,4</t>
+          <t>-1,68; -0,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 0,03</t>
+          <t>-1,21; 0,11</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-60,85; 20,59</t>
+          <t>-57,68; 17,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-76,75; -18,39</t>
+          <t>-76,54; -20,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-58,74; 31,45</t>
+          <t>-59,32; 34,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-56,02; 26,5</t>
+          <t>-58,79; 22,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-65,97; 3,61</t>
+          <t>-66,48; 9,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-55,61; 22,71</t>
+          <t>-58,24; 17,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-52,29; 2,41</t>
+          <t>-51,12; 0,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-65,67; -21,95</t>
+          <t>-65,72; -21,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-50,95; 2,39</t>
+          <t>-49,64; 7,42</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 0,86</t>
+          <t>-2,21; 0,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 0,69</t>
+          <t>-2,61; 0,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 1,83</t>
+          <t>-1,71; 1,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 2,29</t>
+          <t>-1,65; 2,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 0,45</t>
+          <t>-2,89; 0,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 1,25</t>
+          <t>-2,21; 1,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 1,08</t>
+          <t>-1,38; 1,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 0,07</t>
+          <t>-2,2; 0,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 1,22</t>
+          <t>-1,44; 1,07</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-86,51; 117,79</t>
+          <t>-84,49; 128,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-94,18; 157,77</t>
+          <t>-100,0; 120,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-67,38; 229,02</t>
+          <t>-71,8; 188,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-59,59; 196,49</t>
+          <t>-56,84; 228,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-83,4; 56,94</t>
+          <t>-86,44; 38,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-62,19; 108,6</t>
+          <t>-64,45; 108,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-60,18; 94,02</t>
+          <t>-54,79; 85,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-77,62; 15,17</t>
+          <t>-80,61; 16,46</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-50,25; 95,59</t>
+          <t>-53,81; 85,07</t>
         </is>
       </c>
     </row>
@@ -1333,22 +1333,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 0,23</t>
+          <t>-1,1; 0,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,32; -0,16</t>
+          <t>-1,38; -0,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 0,73</t>
+          <t>-0,64; 0,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 0,6</t>
+          <t>-0,67; 0,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,22 +1358,22 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 0,35</t>
+          <t>-0,77; 0,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 0,21</t>
+          <t>-0,67; 0,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,1; -0,28</t>
+          <t>-1,1; -0,24</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 0,39</t>
+          <t>-0,52; 0,34</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-51,25; 17,64</t>
+          <t>-51,01; 18,54</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-65,29; -9,19</t>
+          <t>-67,23; -10,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-35,13; 54,86</t>
+          <t>-32,04; 60,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-34,33; 42,96</t>
+          <t>-34,18; 42,32</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-57,38; 1,0</t>
+          <t>-56,94; 0,21</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-39,63; 27,69</t>
+          <t>-39,12; 30,94</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-35,18; 15,13</t>
+          <t>-35,41; 12,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-56,95; -17,68</t>
+          <t>-56,4; -15,89</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-28,22; 25,76</t>
+          <t>-27,69; 24,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P45C_R1-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R1-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,6</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 2,9</t>
+          <t>-0,05; 2,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 0,87</t>
+          <t>-0,62; 0,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 1,36</t>
+          <t>-0,1; 1,41</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>137,12%</t>
+          <t>132,76%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>56,42%</t>
+          <t>58,3%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,1; 426,77</t>
+          <t>-17,06; 414,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-48,53; 143,81</t>
+          <t>-46,23; 156,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 178,93</t>
+          <t>-12,03; 181,18</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-0,69</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 0,42</t>
+          <t>-1,77; 0,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 0,25</t>
+          <t>-1,65; 0,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 0,11</t>
+          <t>-1,37; -0,02</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-26,63%</t>
+          <t>-33,36%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-28,65%</t>
+          <t>-33,15%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-27,7%</t>
+          <t>-33,28%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-59,32; 34,39</t>
+          <t>-64,41; 19,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-58,24; 17,7</t>
+          <t>-63,65; 9,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-49,64; 7,42</t>
+          <t>-55,59; -1,13</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-0,1</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 1,73</t>
+          <t>-1,7; 1,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 1,18</t>
+          <t>-2,21; 1,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 1,07</t>
+          <t>-1,44; 1,08</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-11,14%</t>
+          <t>-12,83%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-4,87%</t>
+          <t>-5,07%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-71,8; 188,76</t>
+          <t>-73,14; 185,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-64,45; 108,58</t>
+          <t>-64,35; 103,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-53,81; 85,07</t>
+          <t>-54,12; 86,57</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-0,17</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 0,83</t>
+          <t>-0,73; 0,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 0,4</t>
+          <t>-0,85; 0,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 0,34</t>
+          <t>-0,62; 0,28</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>-4,85%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-12,06%</t>
+          <t>-15,3%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-5,72%</t>
+          <t>-10,21%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-32,04; 60,98</t>
+          <t>-37,75; 53,21</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-39,12; 30,94</t>
+          <t>-41,41; 27,92</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-27,69; 24,87</t>
+          <t>-31,68; 19,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P45C_R1-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R1-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 1,06</t>
+          <t>-0,74; 1,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 0,92</t>
+          <t>-0,98; 0,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 2,79</t>
+          <t>0,01; 3,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 1,32</t>
+          <t>-0,42; 1,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 0,57</t>
+          <t>-1,01; 0,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 0,93</t>
+          <t>-0,73; 0,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 0,96</t>
+          <t>-0,35; 0,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 0,51</t>
+          <t>-0,69; 0,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 1,41</t>
+          <t>-0,16; 1,41</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-52,3; 195,87</t>
+          <t>-60,79; 194,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-68,3; 161,58</t>
+          <t>-71,7; 155,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-17,06; 414,13</t>
+          <t>-16,93; 453,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-29,18; 193,95</t>
+          <t>-37,35; 182,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-73,65; 99,11</t>
+          <t>-74,58; 93,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-46,23; 156,19</t>
+          <t>-52,4; 140,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-25,8; 133,09</t>
+          <t>-29,91; 122,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-55,11; 75,85</t>
+          <t>-55,44; 71,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-12,03; 181,18</t>
+          <t>-18,36; 183,69</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 0,25</t>
+          <t>-1,63; 0,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,08; -0,37</t>
+          <t>-2,07; -0,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 0,24</t>
+          <t>-1,77; 0,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 0,3</t>
+          <t>-1,51; 0,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 0,09</t>
+          <t>-1,82; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 0,15</t>
+          <t>-1,61; 0,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 0,0</t>
+          <t>-1,27; 0,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,68; -0,41</t>
+          <t>-1,61; -0,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,37; -0,02</t>
+          <t>-1,37; -0,09</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-57,68; 17,67</t>
+          <t>-60,86; 11,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-76,54; -20,03</t>
+          <t>-75,36; -21,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-64,41; 19,33</t>
+          <t>-66,31; 18,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-58,79; 22,51</t>
+          <t>-57,95; 25,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-66,48; 9,07</t>
+          <t>-67,18; 3,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-63,65; 9,11</t>
+          <t>-61,11; 11,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-51,12; 0,37</t>
+          <t>-49,74; 4,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-65,72; -21,39</t>
+          <t>-65,12; -21,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-55,59; -1,13</t>
+          <t>-55,33; -3,57</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 0,87</t>
+          <t>-2,39; 0,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 0,62</t>
+          <t>-2,53; 0,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 1,85</t>
+          <t>-1,77; 1,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 2,42</t>
+          <t>-1,72; 2,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 0,35</t>
+          <t>-3,05; 0,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 1,16</t>
+          <t>-2,22; 1,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 1,04</t>
+          <t>-1,46; 1,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 0,07</t>
+          <t>-2,19; 0,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 1,08</t>
+          <t>-1,33; 1,17</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-84,49; 128,27</t>
+          <t>-85,18; 133,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 120,54</t>
+          <t>-100,0; 148,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-73,14; 185,79</t>
+          <t>-67,87; 233,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-56,84; 228,49</t>
+          <t>-58,28; 178,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-86,44; 38,53</t>
+          <t>-87,8; 39,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-64,35; 103,68</t>
+          <t>-64,78; 92,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-54,79; 85,14</t>
+          <t>-57,49; 84,05</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-80,61; 16,46</t>
+          <t>-80,51; 21,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-54,12; 86,57</t>
+          <t>-48,86; 91,89</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 0,22</t>
+          <t>-1,03; 0,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,38; -0,16</t>
+          <t>-1,4; -0,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 0,71</t>
+          <t>-0,83; 0,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 0,58</t>
+          <t>-0,68; 0,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,14; -0,01</t>
+          <t>-1,13; 0,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 0,35</t>
+          <t>-0,86; 0,31</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 0,18</t>
+          <t>-0,71; 0,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,1; -0,24</t>
+          <t>-1,12; -0,28</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 0,28</t>
+          <t>-0,6; 0,28</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-51,01; 18,54</t>
+          <t>-49,78; 12,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-67,23; -10,3</t>
+          <t>-66,86; -11,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-37,75; 53,21</t>
+          <t>-40,59; 49,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-34,18; 42,32</t>
+          <t>-34,17; 45,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-56,94; 0,21</t>
+          <t>-57,04; 4,81</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-41,41; 27,92</t>
+          <t>-43,47; 22,94</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-35,41; 12,98</t>
+          <t>-36,01; 14,39</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-56,4; -15,89</t>
+          <t>-56,25; -18,84</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-31,68; 19,51</t>
+          <t>-32,19; 19,69</t>
         </is>
       </c>
     </row>
